--- a/NformTester/NformTester/Keywordscripts/600.40.20.50_AddCustomGroup.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.50_AddCustomGroup.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7717" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7879" uniqueCount="856">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3828,6 +3828,9 @@
   <si>
     <t>Pause</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -4063,21 +4066,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4886,7 +4875,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="15" t="s">
+        <v>855</v>
+      </c>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15">
@@ -4921,7 +4912,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="15" t="s">
+        <v>855</v>
+      </c>
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="15">
@@ -4946,7 +4939,9 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="15" t="s">
+        <v>855</v>
+      </c>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15">
@@ -4977,7 +4972,9 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15">
@@ -5008,7 +5005,9 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15">
@@ -5041,7 +5040,9 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15">
@@ -5070,14 +5071,18 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>855</v>
+      </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -5099,7 +5104,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
@@ -5130,7 +5137,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="16"/>
+      <c r="N10" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
@@ -5157,7 +5166,9 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="16"/>
+      <c r="N11" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15">
@@ -5188,7 +5199,9 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="16"/>
+      <c r="N12" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15">
@@ -5217,7 +5230,9 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="16"/>
+      <c r="N13" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15">
@@ -5246,7 +5261,9 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="16"/>
+      <c r="N14" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15">
@@ -5277,7 +5294,9 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="16"/>
+      <c r="N15" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15">
@@ -5308,7 +5327,9 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="16"/>
+      <c r="N16" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15">
@@ -5337,7 +5358,9 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="16"/>
+      <c r="N17" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
@@ -5366,7 +5389,9 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="16"/>
+      <c r="N18" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15">
@@ -5395,7 +5420,9 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="16"/>
+      <c r="N19" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15">
@@ -5426,7 +5453,9 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="16"/>
+      <c r="N20" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="15">
@@ -5449,7 +5478,9 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="16"/>
+      <c r="N21" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
@@ -5480,7 +5511,9 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="16"/>
+      <c r="N22" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15">
@@ -5507,7 +5540,9 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="15"/>
+      <c r="N23" s="15" t="s">
+        <v>855</v>
+      </c>
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15">
@@ -5530,7 +5565,9 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="15"/>
+      <c r="N24" s="15" t="s">
+        <v>855</v>
+      </c>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15">
@@ -5555,7 +5592,9 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="16"/>
+      <c r="N25" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:15">
@@ -5586,7 +5625,9 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="16"/>
+      <c r="N26" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15">
@@ -5617,7 +5658,9 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="16"/>
+      <c r="N27" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15">
@@ -5648,7 +5691,9 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="16"/>
+      <c r="N28" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15">
@@ -5673,7 +5718,9 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="16"/>
+      <c r="N29" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:15">
@@ -5698,7 +5745,9 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="16"/>
+      <c r="N30" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15">
@@ -5721,7 +5770,9 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="16"/>
+      <c r="N31" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="15">
@@ -5740,7 +5791,9 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="16"/>
+      <c r="N32" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="3:15">
@@ -5765,7 +5818,9 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="16"/>
+      <c r="N33" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="3:15">
@@ -5790,7 +5845,9 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="16"/>
+      <c r="N34" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="3:15">
@@ -5815,7 +5872,9 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="16"/>
+      <c r="N35" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O35" s="11"/>
     </row>
     <row r="36" spans="3:15">
@@ -5842,7 +5901,9 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="16"/>
+      <c r="N36" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="3:15">
@@ -5869,7 +5930,9 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="16"/>
+      <c r="N37" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="3:15">
@@ -5896,7 +5959,9 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="16"/>
+      <c r="N38" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O38" s="11"/>
     </row>
     <row r="39" spans="3:15">
@@ -5923,7 +5988,9 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="16"/>
+      <c r="N39" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="3:15">
@@ -5950,7 +6017,9 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="16"/>
+      <c r="N40" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="3:15">
@@ -5977,7 +6046,9 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="16"/>
+      <c r="N41" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="3:15">
@@ -6004,7 +6075,9 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="16"/>
+      <c r="N42" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="3:15">
@@ -6031,7 +6104,9 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="16"/>
+      <c r="N43" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="3:15">
@@ -6058,7 +6133,9 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="16"/>
+      <c r="N44" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="3:15">
@@ -6085,7 +6162,9 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="16"/>
+      <c r="N45" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O45" s="11"/>
     </row>
     <row r="46" spans="3:15">
@@ -6116,7 +6195,9 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="16"/>
+      <c r="N46" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="3:15" ht="14.25">
@@ -6143,7 +6224,9 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="16"/>
+      <c r="N47" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O47" s="11"/>
     </row>
     <row r="48" spans="3:15">
@@ -6170,7 +6253,9 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="16"/>
+      <c r="N48" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="3:15">
@@ -6195,7 +6280,9 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="16"/>
+      <c r="N49" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="3:15">
@@ -6220,7 +6307,9 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="16"/>
+      <c r="N50" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O50" s="11"/>
     </row>
     <row r="51" spans="3:15">
@@ -6245,7 +6334,9 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="16"/>
+      <c r="N51" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O51" s="11"/>
     </row>
     <row r="52" spans="3:15">
@@ -6270,7 +6361,9 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="16"/>
+      <c r="N52" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O52" s="11"/>
     </row>
     <row r="53" spans="3:15">
@@ -6295,7 +6388,9 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="16"/>
+      <c r="N53" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O53" s="11"/>
     </row>
     <row r="54" spans="3:15">
@@ -6320,7 +6415,9 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="16"/>
+      <c r="N54" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O54" s="11"/>
     </row>
     <row r="55" spans="3:15">
@@ -6345,7 +6442,9 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="16"/>
+      <c r="N55" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O55" s="11"/>
     </row>
     <row r="56" spans="3:15">
@@ -6370,7 +6469,9 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="16"/>
+      <c r="N56" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O56" s="11"/>
     </row>
     <row r="57" spans="3:15">
@@ -6393,7 +6494,9 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="16"/>
+      <c r="N57" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O57" s="11"/>
     </row>
     <row r="58" spans="3:15">
@@ -6418,7 +6521,9 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="16"/>
+      <c r="N58" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O58" s="11"/>
     </row>
     <row r="59" spans="3:15">
@@ -6445,7 +6550,9 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="16"/>
+      <c r="N59" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="3:15">
@@ -6472,7 +6579,9 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="16"/>
+      <c r="N60" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O60" s="11"/>
     </row>
     <row r="61" spans="3:15">
@@ -6499,7 +6608,9 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="16"/>
+      <c r="N61" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O61" s="11"/>
     </row>
     <row r="62" spans="3:15">
@@ -6526,7 +6637,9 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="16"/>
+      <c r="N62" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O62" s="11"/>
     </row>
     <row r="63" spans="3:15">
@@ -6553,7 +6666,9 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="16"/>
+      <c r="N63" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O63" s="11"/>
     </row>
     <row r="64" spans="3:15">
@@ -6580,7 +6695,9 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="16"/>
+      <c r="N64" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O64" s="11"/>
     </row>
     <row r="65" spans="3:15">
@@ -6607,7 +6724,9 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="16"/>
+      <c r="N65" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O65" s="11"/>
     </row>
     <row r="66" spans="3:15">
@@ -6634,7 +6753,9 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="16"/>
+      <c r="N66" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O66" s="11"/>
     </row>
     <row r="67" spans="3:15">
@@ -6661,7 +6782,9 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="16"/>
+      <c r="N67" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O67" s="11"/>
     </row>
     <row r="68" spans="3:15">
@@ -6688,7 +6811,9 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="16"/>
+      <c r="N68" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O68" s="11"/>
     </row>
     <row r="69" spans="3:15">
@@ -6719,7 +6844,9 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="16"/>
+      <c r="N69" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O69" s="11"/>
     </row>
     <row r="70" spans="3:15" ht="14.25">
@@ -6746,7 +6873,9 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="16"/>
+      <c r="N70" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O70" s="11"/>
     </row>
     <row r="71" spans="3:15">
@@ -6773,7 +6902,9 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="16"/>
+      <c r="N71" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O71" s="11"/>
     </row>
     <row r="72" spans="3:15">
@@ -6798,7 +6929,9 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="16"/>
+      <c r="N72" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O72" s="11"/>
     </row>
     <row r="73" spans="3:15">
@@ -6823,7 +6956,9 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="16"/>
+      <c r="N73" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O73" s="11"/>
     </row>
     <row r="74" spans="3:15">
@@ -6848,7 +6983,9 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="16"/>
+      <c r="N74" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O74" s="11"/>
     </row>
     <row r="75" spans="3:15">
@@ -6873,7 +7010,9 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="16"/>
+      <c r="N75" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O75" s="11"/>
     </row>
     <row r="76" spans="3:15">
@@ -6898,7 +7037,9 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="16"/>
+      <c r="N76" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O76" s="11"/>
     </row>
     <row r="77" spans="3:15">
@@ -6923,7 +7064,9 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="16"/>
+      <c r="N77" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O77" s="11"/>
     </row>
     <row r="78" spans="3:15">
@@ -6948,7 +7091,9 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-      <c r="N78" s="16"/>
+      <c r="N78" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O78" s="11"/>
     </row>
     <row r="79" spans="3:15">
@@ -6973,7 +7118,9 @@
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
-      <c r="N79" s="16"/>
+      <c r="N79" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O79" s="11"/>
     </row>
     <row r="80" spans="3:15">
@@ -7000,7 +7147,9 @@
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
-      <c r="N80" s="16"/>
+      <c r="N80" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O80" s="11"/>
     </row>
     <row r="81" spans="3:15">
@@ -7027,7 +7176,9 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="16"/>
+      <c r="N81" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O81" s="11"/>
     </row>
     <row r="82" spans="3:15">
@@ -7052,7 +7203,9 @@
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
-      <c r="N82" s="16"/>
+      <c r="N82" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O82" s="11"/>
     </row>
     <row r="83" spans="3:15" ht="15">
@@ -7071,7 +7224,9 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="16"/>
+      <c r="N83" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O83" s="11"/>
     </row>
     <row r="84" spans="3:15">
@@ -7096,7 +7251,9 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
-      <c r="N84" s="16"/>
+      <c r="N84" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O84" s="11"/>
     </row>
     <row r="85" spans="3:15">
@@ -7121,7 +7278,9 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
-      <c r="N85" s="16"/>
+      <c r="N85" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O85" s="11"/>
     </row>
     <row r="86" spans="3:15">
@@ -7148,7 +7307,9 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
-      <c r="N86" s="16"/>
+      <c r="N86" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O86" s="11"/>
     </row>
     <row r="87" spans="3:15">
@@ -7173,7 +7334,9 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
-      <c r="N87" s="16"/>
+      <c r="N87" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O87" s="11"/>
     </row>
     <row r="88" spans="3:15">
@@ -7200,7 +7363,9 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
-      <c r="N88" s="16"/>
+      <c r="N88" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O88" s="11"/>
     </row>
     <row r="89" spans="3:15">
@@ -7225,7 +7390,9 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="16"/>
+      <c r="N89" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O89" s="11"/>
     </row>
     <row r="90" spans="3:15">
@@ -7248,7 +7415,9 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="16"/>
+      <c r="N90" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O90" s="11"/>
     </row>
     <row r="91" spans="3:15">
@@ -7275,7 +7444,9 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="16"/>
+      <c r="N91" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O91" s="11"/>
     </row>
     <row r="92" spans="3:15">
@@ -7298,7 +7469,9 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="16"/>
+      <c r="N92" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O92" s="11"/>
     </row>
     <row r="93" spans="3:15">
@@ -7323,7 +7496,9 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="16"/>
+      <c r="N93" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O93" s="11"/>
     </row>
     <row r="94" spans="3:15">
@@ -7354,7 +7529,9 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="16"/>
+      <c r="N94" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O94" s="11"/>
     </row>
     <row r="95" spans="3:15">
@@ -7379,7 +7556,9 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="16"/>
+      <c r="N95" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O95" s="11"/>
     </row>
     <row r="96" spans="3:15">
@@ -7404,7 +7583,9 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="16"/>
+      <c r="N96" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O96" s="11"/>
     </row>
     <row r="97" spans="3:15">
@@ -7427,7 +7608,9 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
-      <c r="N97" s="16"/>
+      <c r="N97" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O97" s="11"/>
     </row>
     <row r="98" spans="3:15" ht="15">
@@ -7446,7 +7629,9 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="16"/>
+      <c r="N98" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O98" s="11"/>
     </row>
     <row r="99" spans="3:15">
@@ -7471,7 +7656,9 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
-      <c r="N99" s="16"/>
+      <c r="N99" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O99" s="11"/>
     </row>
     <row r="100" spans="3:15">
@@ -7496,7 +7683,9 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
-      <c r="N100" s="16"/>
+      <c r="N100" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O100" s="11"/>
     </row>
     <row r="101" spans="3:15">
@@ -7523,7 +7712,9 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
-      <c r="N101" s="16"/>
+      <c r="N101" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O101" s="11"/>
     </row>
     <row r="102" spans="3:15">
@@ -7548,7 +7739,9 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
-      <c r="N102" s="16"/>
+      <c r="N102" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O102" s="11"/>
     </row>
     <row r="103" spans="3:15">
@@ -7579,7 +7772,9 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
-      <c r="N103" s="16"/>
+      <c r="N103" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O103" s="11"/>
     </row>
     <row r="104" spans="3:15">
@@ -7604,7 +7799,9 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
-      <c r="N104" s="16"/>
+      <c r="N104" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O104" s="11"/>
     </row>
     <row r="105" spans="3:15">
@@ -7629,7 +7826,9 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
-      <c r="N105" s="16"/>
+      <c r="N105" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O105" s="11"/>
     </row>
     <row r="106" spans="3:15">
@@ -7652,7 +7851,9 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
-      <c r="N106" s="16"/>
+      <c r="N106" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O106" s="11"/>
     </row>
     <row r="107" spans="3:15" ht="15">
@@ -7671,7 +7872,9 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
-      <c r="N107" s="16"/>
+      <c r="N107" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O107" s="11"/>
     </row>
     <row r="108" spans="3:15">
@@ -7696,7 +7899,9 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
-      <c r="N108" s="16"/>
+      <c r="N108" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O108" s="11"/>
     </row>
     <row r="109" spans="3:15">
@@ -7721,7 +7926,9 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
-      <c r="N109" s="16"/>
+      <c r="N109" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O109" s="11"/>
     </row>
     <row r="110" spans="3:15">
@@ -7750,7 +7957,9 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
-      <c r="N110" s="16"/>
+      <c r="N110" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O110" s="11"/>
     </row>
     <row r="111" spans="3:15">
@@ -7775,7 +7984,9 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
-      <c r="N111" s="16"/>
+      <c r="N111" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O111" s="11"/>
     </row>
     <row r="112" spans="3:15">
@@ -7800,7 +8011,9 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="16"/>
+      <c r="N112" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O112" s="11"/>
     </row>
     <row r="113" spans="3:15">
@@ -7825,7 +8038,9 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="16"/>
+      <c r="N113" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O113" s="11"/>
     </row>
     <row r="114" spans="3:15">
@@ -7848,7 +8063,9 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
-      <c r="N114" s="16"/>
+      <c r="N114" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O114" s="11"/>
     </row>
     <row r="115" spans="3:15" ht="15">
@@ -7867,7 +8084,9 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
-      <c r="N115" s="16"/>
+      <c r="N115" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O115" s="11"/>
     </row>
     <row r="116" spans="3:15">
@@ -7892,7 +8111,9 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
-      <c r="N116" s="16"/>
+      <c r="N116" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O116" s="11"/>
     </row>
     <row r="117" spans="3:15">
@@ -7917,7 +8138,9 @@
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
-      <c r="N117" s="16"/>
+      <c r="N117" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O117" s="11"/>
     </row>
     <row r="118" spans="3:15">
@@ -7946,7 +8169,9 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
-      <c r="N118" s="16"/>
+      <c r="N118" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O118" s="11"/>
     </row>
     <row r="119" spans="3:15" ht="15">
@@ -7965,7 +8190,9 @@
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
-      <c r="N119" s="16"/>
+      <c r="N119" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O119" s="11"/>
     </row>
     <row r="120" spans="3:15">
@@ -7990,7 +8217,9 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
-      <c r="N120" s="16"/>
+      <c r="N120" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O120" s="11"/>
     </row>
     <row r="121" spans="3:15">
@@ -8015,7 +8244,9 @@
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="16"/>
+      <c r="N121" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O121" s="11"/>
     </row>
     <row r="122" spans="3:15">
@@ -8042,7 +8273,9 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
-      <c r="N122" s="16"/>
+      <c r="N122" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O122" s="11"/>
     </row>
     <row r="123" spans="3:15">
@@ -8067,7 +8300,9 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
-      <c r="N123" s="16"/>
+      <c r="N123" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O123" s="11"/>
     </row>
     <row r="124" spans="3:15">
@@ -8092,7 +8327,9 @@
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
-      <c r="N124" s="16"/>
+      <c r="N124" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O124" s="11"/>
     </row>
     <row r="125" spans="3:15">
@@ -8117,7 +8354,9 @@
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
-      <c r="N125" s="16"/>
+      <c r="N125" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O125" s="11"/>
     </row>
     <row r="126" spans="3:15">
@@ -8142,7 +8381,9 @@
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
-      <c r="N126" s="16"/>
+      <c r="N126" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O126" s="11"/>
     </row>
     <row r="127" spans="3:15">
@@ -8165,7 +8406,9 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
-      <c r="N127" s="16"/>
+      <c r="N127" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O127" s="11"/>
     </row>
     <row r="128" spans="3:15" ht="15">
@@ -8184,7 +8427,9 @@
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
-      <c r="N128" s="16"/>
+      <c r="N128" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O128" s="11"/>
     </row>
     <row r="129" spans="3:15">
@@ -8209,7 +8454,9 @@
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
-      <c r="N129" s="16"/>
+      <c r="N129" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O129" s="11"/>
     </row>
     <row r="130" spans="3:15">
@@ -8234,7 +8481,9 @@
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
-      <c r="N130" s="16"/>
+      <c r="N130" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O130" s="11"/>
     </row>
     <row r="131" spans="3:15">
@@ -8263,7 +8512,9 @@
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
-      <c r="N131" s="16"/>
+      <c r="N131" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O131" s="11"/>
     </row>
     <row r="132" spans="3:15">
@@ -8288,7 +8539,9 @@
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
-      <c r="N132" s="16"/>
+      <c r="N132" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O132" s="11"/>
     </row>
     <row r="133" spans="3:15">
@@ -8313,7 +8566,9 @@
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
-      <c r="N133" s="16"/>
+      <c r="N133" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O133" s="11"/>
     </row>
     <row r="134" spans="3:15">
@@ -8338,7 +8593,9 @@
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
-      <c r="N134" s="16"/>
+      <c r="N134" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O134" s="11"/>
     </row>
     <row r="135" spans="3:15">
@@ -8361,7 +8618,9 @@
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
-      <c r="N135" s="16"/>
+      <c r="N135" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O135" s="11"/>
     </row>
     <row r="136" spans="3:15" ht="15">
@@ -8380,7 +8639,9 @@
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
-      <c r="N136" s="16"/>
+      <c r="N136" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O136" s="11"/>
     </row>
     <row r="137" spans="3:15">
@@ -8405,7 +8666,9 @@
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
-      <c r="N137" s="16"/>
+      <c r="N137" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O137" s="11"/>
     </row>
     <row r="138" spans="3:15">
@@ -8430,7 +8693,9 @@
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
-      <c r="N138" s="16"/>
+      <c r="N138" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O138" s="11"/>
     </row>
     <row r="139" spans="3:15">
@@ -8459,7 +8724,9 @@
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
-      <c r="N139" s="16"/>
+      <c r="N139" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O139" s="11"/>
     </row>
     <row r="140" spans="3:15">
@@ -8484,7 +8751,9 @@
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
-      <c r="N140" s="16"/>
+      <c r="N140" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O140" s="11"/>
     </row>
     <row r="141" spans="3:15">
@@ -8509,7 +8778,9 @@
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
-      <c r="N141" s="16"/>
+      <c r="N141" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O141" s="11"/>
     </row>
     <row r="142" spans="3:15">
@@ -8534,7 +8805,9 @@
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
-      <c r="N142" s="16"/>
+      <c r="N142" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O142" s="11"/>
     </row>
     <row r="143" spans="3:15">
@@ -8557,7 +8830,9 @@
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
-      <c r="N143" s="16"/>
+      <c r="N143" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O143" s="11"/>
     </row>
     <row r="144" spans="3:15" ht="15">
@@ -8576,7 +8851,9 @@
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
-      <c r="N144" s="16"/>
+      <c r="N144" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O144" s="11"/>
     </row>
     <row r="145" spans="3:15">
@@ -8601,7 +8878,9 @@
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
-      <c r="N145" s="16"/>
+      <c r="N145" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O145" s="11"/>
     </row>
     <row r="146" spans="3:15">
@@ -8626,7 +8905,9 @@
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
-      <c r="N146" s="16"/>
+      <c r="N146" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O146" s="11"/>
     </row>
     <row r="147" spans="3:15">
@@ -8655,7 +8936,9 @@
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
-      <c r="N147" s="16"/>
+      <c r="N147" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O147" s="11"/>
     </row>
     <row r="148" spans="3:15">
@@ -8680,7 +8963,9 @@
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
-      <c r="N148" s="16"/>
+      <c r="N148" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O148" s="11"/>
     </row>
     <row r="149" spans="3:15">
@@ -8705,7 +8990,9 @@
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
-      <c r="N149" s="16"/>
+      <c r="N149" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O149" s="11"/>
     </row>
     <row r="150" spans="3:15">
@@ -8732,7 +9019,9 @@
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
-      <c r="N150" s="16"/>
+      <c r="N150" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O150" s="11"/>
     </row>
     <row r="151" spans="3:15">
@@ -8757,7 +9046,9 @@
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
-      <c r="N151" s="16"/>
+      <c r="N151" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O151" s="11"/>
     </row>
     <row r="152" spans="3:15">
@@ -8784,7 +9075,9 @@
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
-      <c r="N152" s="16"/>
+      <c r="N152" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O152" s="11"/>
     </row>
     <row r="153" spans="3:15">
@@ -8809,7 +9102,9 @@
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
-      <c r="N153" s="16"/>
+      <c r="N153" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O153" s="11"/>
     </row>
     <row r="154" spans="3:15">
@@ -8836,7 +9131,9 @@
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
-      <c r="N154" s="16"/>
+      <c r="N154" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O154" s="11"/>
     </row>
     <row r="155" spans="3:15">
@@ -8861,7 +9158,9 @@
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
-      <c r="N155" s="16"/>
+      <c r="N155" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O155" s="11"/>
     </row>
     <row r="156" spans="3:15">
@@ -8886,7 +9185,9 @@
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
-      <c r="N156" s="16"/>
+      <c r="N156" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O156" s="11"/>
     </row>
     <row r="157" spans="3:15">
@@ -8911,7 +9212,9 @@
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
-      <c r="N157" s="16"/>
+      <c r="N157" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O157" s="11"/>
     </row>
     <row r="158" spans="3:15">
@@ -8936,7 +9239,9 @@
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
-      <c r="N158" s="16"/>
+      <c r="N158" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O158" s="11"/>
     </row>
     <row r="159" spans="3:15">
@@ -8961,7 +9266,9 @@
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
-      <c r="N159" s="16"/>
+      <c r="N159" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O159" s="11"/>
     </row>
     <row r="160" spans="3:15">
@@ -8988,7 +9295,9 @@
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
-      <c r="N160" s="16"/>
+      <c r="N160" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O160" s="11"/>
     </row>
     <row r="161" spans="3:15">
@@ -9013,7 +9322,9 @@
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
-      <c r="N161" s="16"/>
+      <c r="N161" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O161" s="11"/>
     </row>
     <row r="162" spans="3:15">
@@ -9038,7 +9349,9 @@
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
-      <c r="N162" s="16"/>
+      <c r="N162" s="16" t="s">
+        <v>855</v>
+      </c>
       <c r="O162" s="11"/>
     </row>
   </sheetData>

--- a/NformTester/NformTester/Keywordscripts/600.40.20.50_AddCustomGroup.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.50_AddCustomGroup.xlsx
@@ -1196,6 +1196,7 @@
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
